--- a/Assets/_TankRes/excel/const.xlsx
+++ b/Assets/_TankRes/excel/const.xlsx
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3"/>
     </row>

--- a/Assets/_TankRes/excel/const.xlsx
+++ b/Assets/_TankRes/excel/const.xlsx
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>唯一标识</t>
   </si>
   <si>
-    <t>血量</t>
+    <t>数值</t>
   </si>
   <si>
     <t>注释</t>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Player_Tank_Life</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>Player_Default_ID</t>
+  </si>
+  <si>
+    <t>初始坦克类型ID</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1046,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1092,12 +1101,20 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:3">
       <c r="A7" s="3"/>

--- a/Assets/_TankRes/excel/const.xlsx
+++ b/Assets/_TankRes/excel/const.xlsx
@@ -1099,7 +1099,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
